--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6472,7 +6472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6505,6 +6505,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6658,7 +6665,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6671,11 +6678,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6683,15 +6694,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6703,7 +6714,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6711,7 +6722,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6719,23 +6730,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6751,72 +6754,52 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6882,7 +6865,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -6902,7 +6885,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -6917,7 +6900,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -6981,95 +6964,95 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -7077,31 +7060,31 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="72.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -7109,7 +7092,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -7117,18 +7100,18 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7165,103 +7148,103 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -7269,42 +7252,42 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7317,98 +7300,98 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7416,23 +7399,23 @@
       <c r="A64" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7469,15 +7452,15 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -7485,74 +7468,74 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" s="21" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
+    <row r="76" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" s="21" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+    <row r="77" s="20" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" s="21" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
+    <row r="78" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" s="21" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
+    <row r="79" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="21" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
+    <row r="80" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" s="21" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19" t="s">
+    <row r="81" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="20" t="s">
+      <c r="B81" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7560,95 +7543,95 @@
       <c r="A82" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" s="24" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="23" t="s">
+    <row r="85" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" s="27" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+    <row r="87" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="24" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="28" t="s">
+    <row r="88" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" s="24" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="28" t="s">
+    <row r="89" s="23" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" s="27" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+    <row r="90" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" s="27" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+    <row r="91" s="26" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" s="24" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="28" t="s">
+    <row r="92" s="23" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" s="24" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="23" t="s">
+    <row r="93" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="23" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7674,7 +7657,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7688,177 +7671,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+    <row r="2" s="26" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" s="34" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+    <row r="3" s="23" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" s="35" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+    <row r="4" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+    <row r="5" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
+    <row r="6" s="26" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="35" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="26" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="35" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
+    <row r="8" s="26" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="35" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
+    <row r="9" s="26" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+    <row r="10" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="34" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+    <row r="11" s="23" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+    <row r="12" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="30" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" s="35" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+    <row r="13" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="30" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" s="35" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="30" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="34" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
+    <row r="15" s="23" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="28" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+    <row r="16" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
+    <row r="17" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" s="35" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+    <row r="18" s="26" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" s="35" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
+    <row r="19" s="26" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="35" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
+    <row r="20" s="26" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="24" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+    <row r="21" s="23" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" s="34" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+    <row r="22" s="23" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="33" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="21" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="21" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="21" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -5162,7 +5162,7 @@
       <rPr>
         <i val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -5172,7 +5172,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -6472,7 +6472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6566,6 +6566,14 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -6665,7 +6673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6738,7 +6746,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6750,15 +6766,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6774,11 +6794,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6794,11 +6814,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6881,11 +6901,11 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7420,7 +7440,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -7428,7 +7448,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -7436,7 +7456,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -7444,7 +7464,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -7452,7 +7472,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7460,7 +7480,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -7468,7 +7488,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -7476,7 +7496,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7484,22 +7504,22 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20" t="s">
+    <row r="76" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" s="20" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="22" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
         <v>152</v>
       </c>
@@ -7507,15 +7527,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
         <v>156</v>
       </c>
@@ -7523,7 +7543,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
         <v>158</v>
       </c>
@@ -7531,11 +7551,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" s="20" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="s">
+    <row r="81" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="21" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7543,7 +7563,7 @@
       <c r="A82" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7551,7 +7571,7 @@
       <c r="A83" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="24" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7559,27 +7579,27 @@
       <c r="A84" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
+    <row r="85" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>172</v>
       </c>
@@ -7587,51 +7607,51 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="27" t="s">
+    <row r="88" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" s="23" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="27" t="s">
+    <row r="89" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" s="26" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" s="23" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="27" t="s">
+    <row r="92" s="26" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" s="31" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" s="23" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22" t="s">
+    <row r="93" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="26" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7657,7 +7677,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7671,177 +7691,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+    <row r="2" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" s="23" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+    <row r="3" s="26" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="29" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+    <row r="5" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+    <row r="6" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="26" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+    <row r="7" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="26" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+    <row r="8" s="29" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="26" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+    <row r="9" s="29" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="23" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+    <row r="11" s="26" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+    <row r="12" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="33" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" s="26" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="23" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+    <row r="15" s="26" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="31" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
+    <row r="16" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+    <row r="17" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="29" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" s="26" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+    <row r="19" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="26" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
+    <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="23" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+    <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" s="23" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+    <row r="22" s="26" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="20" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -5409,7 +5409,7 @@
       <rPr>
         <i val="true"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -5419,7 +5419,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFC9211E"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -6673,7 +6673,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6764,10 +6764,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6901,8 +6897,8 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7512,7 +7508,7 @@
       </c>
     </row>
     <row r="76" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B76" s="22" t="s">
@@ -7520,7 +7516,7 @@
       </c>
     </row>
     <row r="77" s="22" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7528,7 +7524,7 @@
       </c>
     </row>
     <row r="78" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="22" t="s">
@@ -7536,7 +7532,7 @@
       </c>
     </row>
     <row r="79" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -7544,7 +7540,7 @@
       </c>
     </row>
     <row r="80" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -7552,7 +7548,7 @@
       </c>
     </row>
     <row r="81" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="20" t="s">
         <v>160</v>
       </c>
       <c r="B81" s="21" t="s">
@@ -7563,7 +7559,7 @@
       <c r="A82" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7571,7 +7567,7 @@
       <c r="A83" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7579,27 +7575,27 @@
       <c r="A84" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="25" t="s">
+    <row r="85" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="B86" s="27" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12" t="s">
         <v>172</v>
       </c>
@@ -7607,51 +7603,51 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="30" t="s">
+    <row r="88" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="30" t="s">
+    <row r="89" s="25" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" s="28" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" s="26" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="30" t="s">
+    <row r="92" s="25" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="25" t="s">
+    <row r="93" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7691,171 +7687,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+    <row r="2" s="28" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="25" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" s="29" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="28" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+    <row r="5" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+    <row r="6" s="28" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="29" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
+    <row r="7" s="28" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="29" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+    <row r="8" s="28" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="29" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
+    <row r="9" s="28" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+    <row r="11" s="25" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+    <row r="12" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+    <row r="15" s="25" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+    <row r="16" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+    <row r="17" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="28" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+    <row r="19" s="28" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+    <row r="20" s="28" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
+    <row r="21" s="25" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" s="26" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+    <row r="22" s="25" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>227</v>
       </c>
     </row>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -3293,7 +3293,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Прилагательные II1.txt                            Прилагательные К1е.txt                            Прилагательные СII4ж.txt             Прилагательные ПII4ч.txt          Прилагательные I2 К4.txt                   Прилагательные II3 СII1.txt       Прилагательные К2о СII5ч.txt      Прилагательные II1 К1 СI1.txt                 Прилагательные К1 СI1 ПI1.txt                                          Прилагательные II1 К1 СI1 ПI1.txt                         ...</t>
+      <t xml:space="preserve">Прилагательные II1.txt                            Прилагательные К1е.txt                            Прилагательные СII4ж.txt                              Прилагательные ПII4ч.txt                             Прилагательные I2 К4.txt                   Прилагательные II3 СII1.txt                        Прилагательные К2о СII5ч.txt                    Прилагательные II1 К1 СI1.txt                 Прилагательные К1 СI1 ПI1.txt                                          Прилагательные II1 К1 СI1 ПI1.txt                                       ...</t>
     </r>
   </si>
   <si>
@@ -4663,7 +4663,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                       Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                          Глаголы пер НБI8#.txt                                                       ...</t>
+      <t xml:space="preserve">Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                                 Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                          Глаголы пер НБI8#.txt                                                       ...</t>
     </r>
   </si>
   <si>
@@ -4893,6 +4893,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.МР-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> (кроме ЗС с шаблонами </t>
     </r>
     <r>
@@ -4956,6 +4977,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> I7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve">).</t>
     </r>
   </si>
@@ -5076,6 +5118,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">I7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> .</t>
     </r>
   </si>
@@ -5133,6 +5196,27 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.МмИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t xml:space="preserve"> и словоформа с идентификатором </t>
     </r>
     <r>
@@ -5145,6 +5229,27 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve">.МмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.МмнИ-</t>
     </r>
     <r>
       <rPr>
@@ -6505,13 +6610,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC9211E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6569,6 +6667,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -6673,7 +6778,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6686,15 +6791,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6702,15 +6803,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6722,7 +6823,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6730,7 +6831,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6738,28 +6839,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -6778,15 +6895,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6798,15 +6915,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6814,8 +6931,28 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6897,11 +7034,11 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -6916,7 +7053,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -6980,95 +7117,95 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="43" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="174" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -7076,31 +7213,31 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="72.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -7108,7 +7245,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -7116,18 +7253,18 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7164,103 +7301,103 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+    <row r="44" customFormat="false" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -7268,42 +7405,42 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="116" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7316,98 +7453,98 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7415,28 +7552,28 @@
       <c r="A64" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -7444,7 +7581,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="19" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -7452,7 +7589,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -7460,7 +7597,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -7468,15 +7605,15 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -7484,74 +7621,74 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+    <row r="76" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" s="22" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
+    <row r="77" s="25" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
+    <row r="78" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19" t="s">
+    <row r="79" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
+    <row r="80" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20" t="s">
+    <row r="81" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="23" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7559,95 +7696,95 @@
       <c r="A82" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="26" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24" t="s">
+    <row r="85" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="27" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
+    <row r="87" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="29" t="s">
+    <row r="88" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" s="25" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="29" t="s">
+    <row r="89" s="28" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+    <row r="90" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" s="28" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
+    <row r="91" s="31" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="35" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" s="25" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="29" t="s">
+    <row r="92" s="28" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="33" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
+    <row r="93" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="28" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7669,11 +7806,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7687,177 +7824,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+    <row r="2" s="31" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" s="25" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+    <row r="3" s="38" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="37" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="39" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+    <row r="5" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+    <row r="6" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="30" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+    <row r="7" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="30" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="28" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+    <row r="8" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="28" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
+    <row r="9" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="25" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+    <row r="11" s="38" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+    <row r="12" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="41" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" s="28" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="41" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="25" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+    <row r="15" s="38" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="42" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+    <row r="16" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="43" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+    <row r="17" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="39" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="30" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" s="28" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
+    <row r="19" s="39" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="30" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="28" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
+    <row r="20" s="39" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="25" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29" t="s">
+    <row r="21" s="28" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" s="25" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
+    <row r="22" s="38" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="40" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6577,7 +6577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6701,7 +6701,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -6712,6 +6712,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <i val="true"/>
@@ -6778,7 +6786,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6839,16 +6847,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6875,16 +6875,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6895,7 +6895,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6905,10 +6905,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -6931,28 +6927,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -7034,13 +7018,13 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
   </cols>
   <sheetData>
@@ -7453,7 +7437,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -7461,7 +7445,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -7469,7 +7453,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -7477,7 +7461,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -7485,7 +7469,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -7493,7 +7477,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -7501,7 +7485,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -7509,7 +7493,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -7517,7 +7501,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -7525,7 +7509,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -7533,7 +7517,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -7541,7 +7525,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -7549,10 +7533,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="232" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="5" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7565,7 +7549,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -7573,7 +7557,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -7581,7 +7565,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -7589,7 +7573,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -7597,7 +7581,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -7605,7 +7589,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="18" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -7613,7 +7597,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -7621,7 +7605,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -7629,7 +7613,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -7637,154 +7621,154 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
+    <row r="76" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="22" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" s="25" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20" t="s">
+    <row r="77" s="22" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="21" t="s">
+    <row r="78" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="21" t="s">
+    <row r="79" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="21" t="s">
+    <row r="80" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" s="25" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22" t="s">
+    <row r="81" s="22" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="23" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="23" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="27" t="s">
+    <row r="85" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="15" t="s">
+    <row r="87" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32" t="s">
+    <row r="88" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="26" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" s="28" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="32" t="s">
+    <row r="89" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="15" t="s">
+    <row r="90" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="31" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" s="31" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="15" t="s">
+    <row r="91" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" s="28" customFormat="true" ht="101.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="32" t="s">
+    <row r="92" s="26" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" s="28" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="27" t="s">
+    <row r="93" s="26" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B93" s="26" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7806,11 +7790,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7824,177 +7808,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="31" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+    <row r="2" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" s="38" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+    <row r="3" s="26" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" s="39" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+    <row r="4" s="29" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
+    <row r="6" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+    <row r="7" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+    <row r="8" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+    <row r="9" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+    <row r="10" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="38" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+    <row r="11" s="26" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="36" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="12" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
+    <row r="12" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+    <row r="13" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" s="39" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="38" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+    <row r="15" s="26" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
+    <row r="16" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="39" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+    <row r="17" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" s="39" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
+    <row r="18" s="29" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" s="39" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
+    <row r="19" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" s="39" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29" t="s">
+    <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" s="28" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+    <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="30" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" s="38" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+    <row r="22" s="26" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="23" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="25" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -5146,121 +5146,7 @@
     <t xml:space="preserve">Местоимения ед. и мн. ч.txt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">, и в группе имеются словоформа с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.МмИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.МмИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> и словоформа с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.МмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.МмнИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
+    <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит .М , и в группе имеются словоформа с идентификатором .МмИ / .МмИ- / .МмИ-МмИ и словоформа с идентификатором .МмнИ / .МмнИ- / .МмнИ-МмнИ .</t>
   </si>
   <si>
     <r>
@@ -6786,7 +6672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6919,7 +6805,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6927,12 +6813,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -7018,8 +6908,8 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7580,7 +7470,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="17" t="s">
         <v>138</v>
       </c>
@@ -7790,8 +7680,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7817,7 +7707,7 @@
       </c>
     </row>
     <row r="3" s="26" customFormat="true" ht="89.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="34" t="s">
@@ -7825,47 +7715,47 @@
       </c>
     </row>
     <row r="4" s="29" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="29" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+    <row r="6" s="29" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
         <v>194</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+    <row r="7" s="29" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+    <row r="8" s="29" customFormat="true" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
         <v>198</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+    <row r="9" s="29" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
         <v>200</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -7884,12 +7774,12 @@
       <c r="A11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>206</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -7921,18 +7811,18 @@
       </c>
     </row>
     <row r="16" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="17" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="37" t="s">
         <v>217</v>
       </c>
     </row>
@@ -7945,7 +7835,7 @@
       </c>
     </row>
     <row r="19" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>220</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -7953,7 +7843,7 @@
       </c>
     </row>
     <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -7961,7 +7851,7 @@
       </c>
     </row>
     <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="38" t="s">
         <v>224</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -7972,7 +7862,7 @@
       <c r="A22" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>227</v>
       </c>
     </row>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Списки БС" sheetId="1" state="visible" r:id="rId2"/>
@@ -6284,19 +6284,19 @@
     <t xml:space="preserve">Повторы в гнезде. Повторяющиеся строки.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп и строки с ЗС подгрупп. Найти среди оставшихся строк одинаковые строки. Создать документ Повторы в гнезде. Повторяющиеся строки.txt , вставить в него найденные одинаковые строки. Удалить повторы строк. Сохранить документ Повторы в гнезде. Повторяющиеся строки.txt .</t>
+    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп и строки с ЗС подгрупп. Найти среди оставшихся строк одинаковые строки. Создать документ Повторы в гнезде. Повторяющиеся строки.txt , вставить в него найденные одинаковые строки с соблюдением алфавитного порядка слов. Удалить повторы строк. Сохранить документ Повторы в гнезде. Повторяющиеся строки.txt .</t>
   </si>
   <si>
     <t xml:space="preserve">Повторы в гнезде. Уникальные строки.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп и строки с ЗС подгрупп. Найти среди оставшихся строк уникальные строки.</t>
+    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп и строки с ЗС подгрупп. Найти среди оставшихся строк уникальные строки. Расположить их в соответствии с алфавитным порядком слов.</t>
   </si>
   <si>
     <t xml:space="preserve">Повторы в пределах гнезда. Строки.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп, строки с ЗС подгрупп и повторы строк.</t>
+    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп, строки с ЗС подгрупп и повторы строк. Расположить оставшиеся строки в соответствии с алфавитным порядком слов.</t>
   </si>
   <si>
     <t xml:space="preserve">Омонимы БГ.txt</t>
@@ -6672,7 +6672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6817,12 +6817,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -6908,13 +6912,13 @@
   </sheetPr>
   <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
   </cols>
   <sheetData>
@@ -7664,8 +7668,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7680,11 +7684,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7763,7 +7767,7 @@
       </c>
     </row>
     <row r="10" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="24" t="s">
         <v>202</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -7779,7 +7783,7 @@
       </c>
     </row>
     <row r="12" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="27" t="s">
         <v>206</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -7795,31 +7799,31 @@
       </c>
     </row>
     <row r="14" s="29" customFormat="true" ht="130.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="24" t="s">
         <v>210</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="26" customFormat="true" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+    <row r="16" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+    <row r="17" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="38" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -7827,7 +7831,7 @@
       </c>
     </row>
     <row r="18" s="29" customFormat="true" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="24" t="s">
         <v>218</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -7835,7 +7839,7 @@
       </c>
     </row>
     <row r="19" s="29" customFormat="true" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="27" t="s">
         <v>220</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -7843,7 +7847,7 @@
       </c>
     </row>
     <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="38" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -7851,7 +7855,7 @@
       </c>
     </row>
     <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="39" t="s">
         <v>224</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -7871,8 +7875,8 @@
     <row r="25" s="22" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6284,7 +6284,7 @@
     <t xml:space="preserve">Повторы в гнезде. Повторяющиеся строки.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп и строки с ЗС подгрупп. Найти среди оставшихся строк одинаковые строки. Создать документ Повторы в гнезде. Повторяющиеся строки.txt , вставить в него найденные одинаковые строки с соблюдением алфавитного порядка слов. Удалить повторы строк. Сохранить документ Повторы в гнезде. Повторяющиеся строки.txt .</t>
+    <t xml:space="preserve">Создать документ Повторы в пределах гнезда.txt . Удалить из него строки с ЗС групп, с ЗС подгрупп и с многокорневыми словами. Найти среди оставшихся строк одинаковые строки. Создать документ Повторы в гнезде. Повторяющиеся строки.txt , вставить в него найденные одинаковые строки с соблюдением алфавитного порядка слов. Удалить повторы строк. Сохранить документ Повторы в гнезде. Повторяющиеся строки.txt .</t>
   </si>
   <si>
     <t xml:space="preserve">Повторы в гнезде. Уникальные строки.txt</t>
@@ -6463,7 +6463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6598,6 +6598,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -6817,7 +6824,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6829,7 +6836,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6876,7 +6883,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -6916,7 +6923,7 @@
       <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7684,11 +7691,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6923,7 +6923,7 @@
       <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7692,10 +7692,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7830,7 +7830,7 @@
       </c>
     </row>
     <row r="17" s="29" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="27" t="s">
         <v>216</v>
       </c>
       <c r="B17" s="37" t="s">

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6463,7 +6463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6607,14 +6607,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -6679,7 +6671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6832,14 +6824,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6923,7 +6907,7 @@
       <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7691,11 +7675,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7854,7 +7838,7 @@
       </c>
     </row>
     <row r="20" s="29" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="27" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -7862,7 +7846,7 @@
       </c>
     </row>
     <row r="21" s="26" customFormat="true" ht="159.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="27" t="s">
         <v>224</v>
       </c>
       <c r="B21" s="30" t="s">

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -7676,7 +7676,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7854,7 +7854,7 @@
       </c>
     </row>
     <row r="22" s="26" customFormat="true" ht="217.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B22" s="35" t="s">

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -6233,7 +6233,15 @@
     <t xml:space="preserve">Многокорневые слова БГ.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Найти в БГ строки с многокорневыми словами, т.е. словами, у которых есть корневой индекс (кроме невидимок).
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Найти в БГ строки с многокорневыми словами, т.е. словами, у которых есть корневой индекс (кроме невидимок).
 Создать документ Многокорневые слова БГ.xlsx и заполнить его строками с найденными многокорневыми словами с соблюдением следующих правил:
   1. строки приводятся полностью;
   2. строки вставляются в тот или иной столбец в зависимости от корневого индекса;
@@ -6245,7 +6253,28 @@
   ЮНЕСКО 6
   вставляется 1 раз несмотря на то, что в базе она встречается 6 раз).
 По завершении заполнения документа Многокорневые слова БГ.xlsx вставленные строки в столбцах расположить в соответствии с алфавитным порядком слов, 
-а сами столбцы - в следующем порядке: 2 2! 2* 3 3! 3* 3** 4 4! 4* 4** 5 5! 5* 5** 6 6! 6* 6** 7 7! 7* 7** .</t>
+а сами столбцы - в следующем порядке: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 2! 2* 3 3! 3* 3** 4 4! 4* 4** 5 5! 5* 5** 6 6! 6* 6** 7 7! 7* 7** 8 8! 8* 8** 9 9! 9* 9** 10 10! 10* 10**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Многокорневые слова БГ - омонимы.txt</t>
@@ -6463,7 +6492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6598,6 +6627,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6816,7 +6852,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6884,7 +6920,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -6907,7 +6943,7 @@
       <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7675,11 +7711,11 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="167.54"/>
@@ -7765,7 +7801,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" s="26" customFormat="true" ht="188.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="26" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
         <v>204</v>
       </c>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -5444,33 +5444,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Создать документы Повторы в пределах гнезда.txt и Повторы в пределах гнезда. Строки.txt .                                                                                                                                                                                                                                                                                                                      Найти в БГ в группах, НЕ указанных в документе Повторы в пределах гнезда.txt , строки со словами (кроме невидимок), совпадающими по написанию со словами из документа Повторы в пределах гнезда. Строки.txt .
-Создать документ Слова, омонимичные повторам в гнезде.txt и вставить в него найденные строки с соблюдением алфавитного порядка слов и с соблюдением следующего правила:
-если омоним является ЗС подгруппы, то просто полностью указывается строка с омонимом;
-если же омоним не является ЗС подгруппы, то после строки с омонимом ставится символ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и затем указывается строка с ЗС подгруппы, в которой находится данный омоним.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Найти в БГ строки, оканчивающиеся комбинацией символов </t>
     </r>
     <r>
@@ -6366,11 +6339,38 @@
     </r>
   </si>
   <si>
-    <t>Найти в БС строки с одинаковыми словами, находящимися в разных группах (с указанием строки с ЗС группы, в которой находится каждая такая строка).                                                                            Случаи, когда строки в БГ, соответствующие строкам с ЗС групп (из БС), находятся в БГ в одном гнезде хотя бы 1 раз и при этом в каждой такой (соответствующей) строке имеется корневой индекс, ИГНОРИРОВАТЬ! (При проверке на нахождение строк в БГ в одном гнезде учитывать пункты 1 - 4 Правил соотношения БГ и БС).
-Примечание 1. Омонимичной формой может быть любая словоформа, в том числе ЗС группы или одиночка.
+    <r>
+      <t xml:space="preserve">Создать документы Повторы в пределах гнезда.txt и Повторы в пределах гнезда. Строки.txt .                                                                                                                                                                                                                                                                                                                      Найти в БГ в подгруппах, НЕ указанных в документе Повторы в пределах гнезда.txt , строки со словами (кроме невидимок), совпадающими по написанию со словами из документа Повторы в пределах гнезда. Строки.txt .
+Создать документ Слова, омонимичные повторам в гнезде.txt и вставить в него найденные строки с соблюдением алфавитного порядка слов и с соблюдением следующего правила:
+если омоним является ЗС подгруппы, то просто полностью указывается строка с омонимом;
+если же омоним не является ЗС подгруппы, то после строки с омонимом ставится символ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и затем указывается строка с ЗС подгруппы, в которой находится данный омоним.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Найти в БС строки с омонимичными формами, т.е. одинаковыми словами, находящимися в разных группах. Создать документ и вставить в него найденные строки с омонимичными формами, указывая строки с ЗС группы, в которой находится каждая такая строка, и объединяя строки с одинаковыми омонимичными формами в "абзацы".                                                                                                                                                                                                                                                                                                                                Примечание 1. Омонимичной формой может быть любая словоформа, в том числе ЗС группы или одиночка.
 Примечание 2. Количество омонимичных форм не ограничено.
 Примечание 3. Перед строкой с ЗС группы ставится "!".
-Примечание 4. "Абзацы" со строками с омонимичными формами с указанием строк с ЗС групп, в которых они находятся, располагаются в соответствии с алфавитным порядком омонимичных форм.</t>
+Примечание 4. "Абзацы" со строками с омонимичными формами с указанием строк с ЗС групп, в которых они находятся, располагаются в соответствии с алфавитным порядком омонимичных форм.                                                                                                                                                                                                                                                                                                                                                                                     2. Удалить из созданного согласно п. 1  документа "абзацы", в которых все ЗС групп являются многокорневыми словами, т.е.  "абзацы", в которых всем строкам с ЗС групп (из БС) в БГ соответствуют строки, которые находятся в одном гнезде хотя бы 1 раз и при этом в каждой такой (соответствующей) строке имеется корневой индекс. (При проверке на нахождение строк в БГ в одном гнезде учитывать пункты 1 - 4 Правил соотношения БГ и БС).
+3. Далее удалить "абзацы", в которых всем строкам с ЗС групп (из БС) в БГ соответствуют строки, находящиеся в одном гнезде. (При проверке на нахождение строк в БГ в одном гнезде учитывать пункты 1 - 4 Правил соотношения БГ и БС).</t>
   </si>
 </sst>
 </file>
@@ -6776,11 +6776,11 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7065,7 +7065,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,10 +7284,10 @@
     </row>
     <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7420,7 +7420,7 @@
     </row>
     <row r="44" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>143</v>
@@ -7468,10 +7468,10 @@
     </row>
     <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
     </row>
     <row r="64" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>162</v>
@@ -7596,10 +7596,10 @@
     </row>
     <row r="66" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -7623,7 +7623,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7631,7 +7631,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7775,7 +7775,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="56" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -7783,7 +7783,7 @@
         <v>186</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="16" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" s="16" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>83</v>
       </c>
@@ -7829,7 +7829,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7859,7 +7859,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -7915,15 +7915,15 @@
         <v>93</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="14" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>215</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>94</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="15" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>96</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="15" customFormat="1" ht="135" x14ac:dyDescent="0.25">
@@ -7947,7 +7947,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -7955,7 +7955,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7963,7 +7963,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7971,15 +7971,15 @@
         <v>185</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="15" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>226</v>
+      <c r="B18" s="58" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="15" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -7987,7 +7987,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="15" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -7995,7 +7995,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="12" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -8003,7 +8003,7 @@
         <v>183</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="14" customFormat="1" ht="225" x14ac:dyDescent="0.25">
@@ -8011,7 +8011,7 @@
         <v>181</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8535C00-94C4-450E-8D41-363CEC1E29E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C1064-88FB-4E08-BF25-5000E8722D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,19 +394,670 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
+      <t xml:space="preserve">и в спец. информации имеется указатель рода с индикатором "!":  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. с индикатором "!": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит римскую цифру</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме шаблонов ед. ч.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I5&amp;II2* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I7&amp;II4* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит римскую цифру</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме шаблонов ед. ч.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I5&amp;II2* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I7&amp;II4* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан шаблон ед. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I5&amp;II2* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I7&amp;II4*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-С</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                                                                                                                           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Это сочетание элементов спец. информации вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.СеИ-СмнИ </t>
     </r>
     <r>
       <rPr>
@@ -429,12 +1080,546 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> .СмнИ-СеИ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор одушевлённости </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>о</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор ед. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>е</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, в спец. информации указан шаблон полной формы, название которого не содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и отсутствует индикатор ед. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>е</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый элемент / указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Этот элемент спец. информации / сочетание элементов спец. информации вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Прилагательные</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит римскую цифру</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме шаблонов НБ вр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>., название которого содержит сочетание римских цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I-II</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, а также шаблонов НБ вр.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I3&amp;II2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -446,41 +1631,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> м! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I3&amp;II2л </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -492,18 +1652,206 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I8щ&amp;II5щ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и кроме глаголов с дефисом, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Г</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Г</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит римскую цифру</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме шаблонов НБ вр</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>., название которого содержит сочетание римских цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I-II</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, а также шаблонов НБ вр.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I3&amp;II2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -515,24 +1863,106 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I3&amp;II2л </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I8щ&amp;II5щ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и кроме глаголов с дефисом, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Г</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Г</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
     </r>
   </si>
   <si>
@@ -549,61 +1979,349 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и в спец. информации имеется указатель рода с индикатором "!":  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит сочетание римских цифр</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I-II </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также следующие шаблоны НБ вр.: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I3&amp;II2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I3&amp;II2л </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I8щ&amp;II5щ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый элемент / указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Этот элемент спец. информации / сочетание элементов спец. информации вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Глаголы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Г </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <t>Найти в БС строки с одиночками.</t>
+  </si>
+  <si>
+    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеется хотя бы 1 дефис.</t>
+  </si>
+  <si>
+    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеется хотя бы 1 латинская буква.</t>
+  </si>
+  <si>
+    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеются одинаковые слова.</t>
+  </si>
+  <si>
+    <t>Снимок БС.txt</t>
+  </si>
+  <si>
+    <t>Снимок БГ.txt</t>
+  </si>
+  <si>
+    <t>Обычные слова БС.txt</t>
+  </si>
+  <si>
+    <t>Обычные слова БГ.txt</t>
+  </si>
+  <si>
+    <t>Найти в БС строки с ЗС групп / одиночками. Создать документ Снимок БС.txt и вставить в него найденные строки, располагая их друг за другом, без пробелов между строками.</t>
+  </si>
+  <si>
+    <t>Повторы в пределах гнезда. Строки.txt</t>
+  </si>
+  <si>
+    <t>Повторы в пределах гнезда. 1 раз в БС.txt</t>
+  </si>
+  <si>
+    <t>Пояснительные примечания (без омонимов).txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создать документы Слова с пояснительными примечаниями БС.txt и Омонимы БС (ЗС групп и одиночки).txt . Найти в документе Слова с пояснительными примечаниями БС.txt строки, отсутствующие в документе Омонимы БС (ЗС групп и одиночки).txt . </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БГ строки с этимологическими примечаниями, т.е. строки, в которых имеются следующие комбинации символов: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> / </t>
@@ -612,21 +2330,55 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки, оканчивающиеся комбинацией символов </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">*!                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Примечание. Одинаковые строки с многокорневыми словами (т.е. в строке имеется также корневой индекс), в которых имеются следующие комбинации символов: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> / </t>
@@ -635,2252 +2387,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">мн </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>или индикатор мн. ч. с индикатором "!":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> мн!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. с индикатором "!": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит римскую цифру</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме шаблонов ед. ч.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I5&amp;II2* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I7&amp;II4* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит римскую цифру</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> II </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме шаблонов ед. ч.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I5&amp;II2* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I7&amp;II4* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан шаблон ед. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">I5&amp;II2* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I7&amp;II4*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(кроме существительных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-С</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон ед. ч., название которого содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                                                                                                                                           </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Это сочетание элементов спец. информации вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.СеИ-СмнИ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .СмнИ-СеИ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор одушевлённости </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>о</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор ед. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>е</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, в спец. информации указан шаблон полной формы, название которого не содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">мн </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и отсутствует индикатор ед. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>е</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый элемент / указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Этот элемент спец. информации / сочетание элементов спец. информации вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Прилагательные</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                               в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                      часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит римскую цифру</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме шаблонов НБ вр</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>., название которого содержит сочетание римских цифр</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I-II</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, а также шаблонов НБ вр.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I3&amp;II2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I3&amp;II2л </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I8щ&amp;II5щ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и кроме глаголов с дефисом, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.Г</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Г</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит римскую цифру</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> II </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме шаблонов НБ вр</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>., название которого содержит сочетание римских цифр</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I-II</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, а также шаблонов НБ вр.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I3&amp;II2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I3&amp;II2л </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I8щ&amp;II5щ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и кроме глаголов с дефисом, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.Г</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Г</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в спец. информации указан шаблон НБ вр., название которого содержит сочетание римских цифр</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I-II </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, а также следующие шаблоны НБ вр.: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I3&amp;II2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> /</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I3&amp;II2л </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I8щ&amp;II5щ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый элемент / указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Этот элемент спец. информации / сочетание элементов спец. информации вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Глаголы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Г </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <t>Найти в БС строки с одиночками.</t>
-  </si>
-  <si>
-    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеется хотя бы 1 дефис.</t>
-  </si>
-  <si>
-    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеется хотя бы 1 латинская буква.</t>
-  </si>
-  <si>
-    <t>Найти в БС строки с ЗС групп / одиночками, в которых имеются одинаковые слова.</t>
-  </si>
-  <si>
-    <t>Снимок БС.txt</t>
-  </si>
-  <si>
-    <t>Снимок БГ.txt</t>
-  </si>
-  <si>
-    <t>Обычные слова БС.txt</t>
-  </si>
-  <si>
-    <t>Обычные слова БГ.txt</t>
-  </si>
-  <si>
-    <t>Найти в БС строки с ЗС групп / одиночками. Создать документ Снимок БС.txt и вставить в него найденные строки, располагая их друг за другом, без пробелов между строками.</t>
-  </si>
-  <si>
-    <t>Повторы в пределах гнезда. Строки.txt</t>
-  </si>
-  <si>
-    <t>Повторы в пределах гнезда. 1 раз в БС.txt</t>
-  </si>
-  <si>
-    <t>Пояснительные примечания (без омонимов).txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Создать документы Слова с пояснительными примечаниями БС.txt и Омонимы БС (ЗС групп и одиночки).txt . Найти в документе Слова с пояснительными примечаниями БС.txt строки, отсутствующие в документе Омонимы БС (ЗС групп и одиночки).txt . </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БГ строки с этимологическими примечаниями, т.е. строки, в которых имеются следующие комбинации символов: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2894,63 +2400,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> , а также строки, оканчивающиеся комбинацией символов </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">*!                                                                                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Примечание. Одинаковые строки с многокорневыми словами (т.е. в строке имеется также корневой индекс), в которых имеются следующие комбинации символов: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> , а также одинаковые строки с многокорневыми словами, оканчивающиеся комбинацией символов </t>
     </r>
     <r>
@@ -3164,63 +2613,7 @@
     <t>Существительные. Сочетания шаблонов.xlsx</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
     <t>Прилагательные. Сочетания шаблонов.xlsx</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
   </si>
   <si>
     <t>Глаголы. Сочетания шаблонов.xlsx</t>
@@ -5890,6 +5283,751 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> м! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или индикатор мн. ч. с индикатором "!":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мн!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
     </r>
     <r>
@@ -5911,7 +6049,222 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч. имеется: а. указатель муж. рода </t>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
     </r>
     <r>
       <rPr>
@@ -5932,7 +6285,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">или б. указатель муж. рода </t>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода </t>
     </r>
     <r>
       <rPr>
@@ -5953,7 +6327,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> или в. указатель муж. рода </t>
+      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
     </r>
     <r>
       <rPr>
@@ -6063,159 +6437,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч. имеется: а. указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или б. указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> или в. указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч. имеется: а. указатель ср. рода </t>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
     </r>
     <r>
       <rPr>
@@ -6236,7 +6479,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">или б. указатель ср. рода </t>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода </t>
     </r>
     <r>
       <rPr>
@@ -6257,7 +6521,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> или в. указатель ср. рода </t>
+      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
     </r>
     <r>
       <rPr>
@@ -6349,12 +6613,44 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6663,158 +6959,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6822,51 +7124,73 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7152,7 +7476,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7170,35 +7494,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>174</v>
+      <c r="B3" s="27" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>98</v>
+      <c r="B5" s="75" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7206,15 +7530,15 @@
         <v>13</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>100</v>
+      <c r="B7" s="77" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7222,34 +7546,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
@@ -7261,16 +7585,16 @@
       <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>103</v>
+      <c r="B13" s="78" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>104</v>
+      <c r="B14" s="78" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7278,7 +7602,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7286,103 +7610,103 @@
         <v>28</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>106</v>
+      <c r="B17" s="86" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>223</v>
+      <c r="A18" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>224</v>
+        <v>167</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="186.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>114</v>
+      <c r="B28" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7390,7 +7714,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7398,7 +7722,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7406,7 +7730,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7414,7 +7738,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7422,7 +7746,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7430,7 +7754,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7438,7 +7762,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7446,7 +7770,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7454,7 +7778,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7462,7 +7786,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7470,7 +7794,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7478,7 +7802,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7486,7 +7810,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7494,7 +7818,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7502,15 +7826,15 @@
         <v>35</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7518,47 +7842,47 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>121</v>
+      <c r="B46" s="81" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>122</v>
+      <c r="B47" s="81" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>123</v>
+      <c r="B48" s="81" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>124</v>
+      <c r="B49" s="84" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7566,343 +7890,343 @@
         <v>2</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>129</v>
+      <c r="A64" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>130</v>
+      <c r="B65" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>131</v>
+      <c r="B67" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>160</v>
+      <c r="B68" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>161</v>
+      <c r="B69" s="27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B70" s="30" t="s">
-        <v>162</v>
+      <c r="B70" s="29" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>214</v>
+      <c r="A71" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>132</v>
+      <c r="B72" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="33" t="s">
+      <c r="A73" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B73" s="32" t="s">
-        <v>215</v>
+      <c r="B73" s="31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="32" t="s">
-        <v>216</v>
+      <c r="B74" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>217</v>
+      <c r="B75" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="28" t="s">
-        <v>133</v>
+      <c r="B76" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>218</v>
+      <c r="A77" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="28" t="s">
-        <v>134</v>
+      <c r="B78" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="32" t="s">
-        <v>219</v>
+      <c r="B79" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B80" s="32" t="s">
-        <v>220</v>
+      <c r="B80" s="31" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="35" t="s">
-        <v>221</v>
+      <c r="B81" s="34" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="36" t="s">
-        <v>135</v>
+      <c r="B82" s="35" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="36" t="s">
-        <v>136</v>
+      <c r="B83" s="35" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="36" t="s">
-        <v>137</v>
+      <c r="B84" s="35" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="38" t="s">
+      <c r="A85" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="38" t="s">
-        <v>201</v>
+      <c r="B85" s="37" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="37" t="s">
-        <v>202</v>
+      <c r="B87" s="36" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="41" t="s">
-        <v>169</v>
+      <c r="B88" s="40" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>173</v>
+      <c r="A89" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="44" t="s">
-        <v>138</v>
+      <c r="B90" s="43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="45" t="s">
-        <v>171</v>
+      <c r="B91" s="44" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>222</v>
+      <c r="A92" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="46" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="B93" s="49" t="s">
-        <v>143</v>
+      <c r="A93" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7921,197 +8245,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.83984375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="168.47265625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="45.83984375" style="72" customWidth="1"/>
+    <col min="2" max="2" width="168.47265625" style="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>205</v>
+      <c r="B2" s="50" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>206</v>
+      <c r="B3" s="52" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>148</v>
+      <c r="B4" s="53" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>149</v>
+      <c r="B5" s="53" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>150</v>
+      <c r="B6" s="53" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>151</v>
+      <c r="B7" s="53" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>152</v>
+      <c r="B8" s="53" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>153</v>
+      <c r="B9" s="53" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>203</v>
+      <c r="B10" s="53" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" ht="203.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>172</v>
+      <c r="A11" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>166</v>
+      <c r="B12" s="56" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>207</v>
+      <c r="B13" s="56" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>170</v>
+      <c r="B14" s="56" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>164</v>
+      <c r="B15" s="58" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>163</v>
+      <c r="B16" s="68" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>168</v>
+      <c r="A17" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>208</v>
+      <c r="B18" s="70" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>167</v>
+      <c r="B19" s="71" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>204</v>
+      <c r="B20" s="71" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>209</v>
+      <c r="A21" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="64" t="s">
-        <v>210</v>
+      <c r="A22" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C1064-88FB-4E08-BF25-5000E8722D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB195A-E88C-4936-A6DF-ABCE38095FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,34 +1017,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
     </r>
     <r>
@@ -1092,34 +1064,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
     </r>
   </si>
   <si>
@@ -6070,6 +6014,347 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме ЗС групп с идентификатором</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
     </r>
     <r>
@@ -6091,7 +6376,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>и отсутствует дефис</t>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -6112,7 +6418,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода </t>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
     </r>
     <r>
       <rPr>
@@ -6133,7 +6439,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
     </r>
     <r>
       <rPr>
@@ -6217,6 +6544,90 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>…).</t>
     </r>
   </si>
@@ -6264,28 +6675,49 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и отсутствует дефис</t>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -6306,60 +6738,81 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
     </r>
     <r>
       <rPr>
@@ -6380,7 +6833,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>м</t>
+      <t>с</t>
     </r>
     <r>
       <rPr>
@@ -6401,7 +6854,91 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-м</t>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
     </r>
     <r>
       <rPr>
@@ -6422,6 +6959,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -6432,6 +6970,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -6443,6 +6982,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -6453,159 +6993,64 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и отсутствует дефис</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
     </r>
   </si>
 </sst>
@@ -6613,12 +7058,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6959,121 +7420,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7081,117 +7530,140 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7476,7 +7948,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7506,7 +7978,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7514,78 +7986,78 @@
         <v>10</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="86" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="73" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="83" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7593,7 +8065,7 @@
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="75" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7602,7 +8074,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7617,88 +8089,88 @@
       <c r="A17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="82" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="80" t="s">
-        <v>166</v>
+      <c r="A18" s="91" t="s">
+        <v>164</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="186.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19" t="s">
-        <v>201</v>
+      <c r="A20" s="91" t="s">
+        <v>199</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>105</v>
+      <c r="B21" s="90" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="83" t="s">
-        <v>222</v>
+      <c r="B22" s="79" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>223</v>
+      <c r="B23" s="79" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="83" t="s">
-        <v>224</v>
+      <c r="B24" s="89" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="85" t="s">
-        <v>106</v>
+      <c r="B25" s="81" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>107</v>
+      <c r="B26" s="90" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="79" t="s">
-        <v>217</v>
+        <v>143</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7706,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7714,7 +8186,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7722,7 +8194,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7730,7 +8202,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7738,7 +8210,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7746,7 +8218,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7754,7 +8226,7 @@
         <v>22</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7762,7 +8234,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7770,7 +8242,7 @@
         <v>24</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7778,7 +8250,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7786,7 +8258,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7794,7 +8266,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7802,7 +8274,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7810,7 +8282,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7818,7 +8290,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7826,15 +8298,15 @@
         <v>35</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7842,47 +8314,47 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="81" t="s">
-        <v>221</v>
+      <c r="B46" s="77" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="81" t="s">
-        <v>220</v>
+      <c r="B47" s="77" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="81" t="s">
-        <v>218</v>
+      <c r="B48" s="77" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="84" t="s">
-        <v>115</v>
+      <c r="B49" s="80" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="82" t="s">
-        <v>219</v>
+        <v>144</v>
+      </c>
+      <c r="B50" s="78" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7890,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7898,7 +8370,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7906,7 +8378,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7914,7 +8386,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7922,7 +8394,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7930,7 +8402,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7938,7 +8410,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7946,7 +8418,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7954,7 +8426,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -7962,7 +8434,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7970,7 +8442,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -7978,7 +8450,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -7986,15 +8458,15 @@
         <v>59</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8002,15 +8474,15 @@
         <v>60</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8018,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8026,7 +8498,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8034,7 +8506,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8042,15 +8514,15 @@
         <v>62</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8058,7 +8530,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8066,7 +8538,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8074,7 +8546,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8082,7 +8554,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8090,15 +8562,15 @@
         <v>4</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8106,7 +8578,7 @@
         <v>68</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8114,7 +8586,7 @@
         <v>69</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8122,7 +8594,7 @@
         <v>70</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8130,7 +8602,7 @@
         <v>71</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8138,7 +8610,7 @@
         <v>72</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8146,7 +8618,7 @@
         <v>73</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8154,7 +8626,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8162,15 +8634,15 @@
         <v>74</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8178,7 +8650,7 @@
         <v>75</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8186,15 +8658,15 @@
         <v>77</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8202,7 +8674,7 @@
         <v>76</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8210,23 +8682,23 @@
         <v>78</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92" s="46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8262,7 +8734,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8270,7 +8742,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -8278,7 +8750,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8286,7 +8758,7 @@
         <v>83</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8294,7 +8766,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8302,7 +8774,7 @@
         <v>85</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8310,7 +8782,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8318,7 +8790,7 @@
         <v>87</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8326,15 +8798,15 @@
         <v>88</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" ht="203.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -8342,7 +8814,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -8350,7 +8822,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
@@ -8358,7 +8830,7 @@
         <v>92</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8366,7 +8838,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8374,15 +8846,15 @@
         <v>96</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8390,7 +8862,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8398,7 +8870,7 @@
         <v>93</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
@@ -8406,23 +8878,23 @@
         <v>94</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB195A-E88C-4936-A6DF-ABCE38095FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E59C3-C08C-4534-BC84-698E54F79825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>Прилагательные. Нет ед. ч.txt</t>
   </si>
   <si>
-    <t>Прилагательные ед. и мн. ч.txt</t>
-  </si>
-  <si>
     <t>Прилагательные. Только м. р.txt</t>
   </si>
   <si>
@@ -3425,7 +3422,58 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>м</t>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
     </r>
     <r>
       <rPr>
@@ -3448,30 +3496,303 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">фм </t>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит римскую цифру </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>III</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (кроме шаблонов полной формы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIIф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIIфм</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIIф</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IIIфм</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и перед ЗС имеется поставленный(-ые) без пробела символ(ы) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">** </t>
     </r>
     <r>
       <rPr>
@@ -3493,7 +3814,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3504,366 +3824,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (но не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит римскую цифру </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>III</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (кроме шаблонов полной формы </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IIIф</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IIIфм</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IIIф</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (но не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IIIфм</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и перед ЗС имеется поставленный(-ые) без пробела символ(ы) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации отсутствует шаблон полной формы (кроме адъектированных причастий, т.е. ЗС, перед которыми имеется поставленный(-ые) без пробела символ(ы) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3874,7 +3845,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3886,76 +3856,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">** </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации отсутствует шаблон полной формы (кроме адъектированных причастий, т.е. ЗС, перед которыми имеется поставленный(-ые) без пробела символ(ы) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -3972,90 +3872,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> ).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени.                                        </t>
     </r>
   </si>
   <si>
@@ -7053,17 +6869,343 @@
       <t>, и в ЗС имеется более 1 дефиса.</t>
     </r>
   </si>
+  <si>
+    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7420,121 +7562,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7542,128 +7671,154 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7966,67 +8121,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="87" t="s">
+    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>214</v>
+      <c r="B9" s="85" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8034,15 +8189,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="72" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -8050,311 +8205,311 @@
         <v>12</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>101</v>
+        <v>25</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="82" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>210</v>
+      <c r="A18" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>211</v>
+        <v>164</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="186.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="91" t="s">
-        <v>199</v>
+      <c r="A20" s="90" t="s">
+        <v>194</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="88" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="89" t="s">
+      <c r="B26" s="89" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>215</v>
+        <v>142</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="14" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="14" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B34" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="17" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="17" t="s">
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="17" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="17" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="15" t="s">
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B40" s="43" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="15" t="s">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="15" t="s">
+      <c r="B41" s="96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="15" t="s">
+      <c r="B42" s="96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>176</v>
+      <c r="B43" s="96" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="77" t="s">
-        <v>219</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="77" t="s">
-        <v>218</v>
+        <v>45</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="77" t="s">
-        <v>216</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="80" t="s">
-        <v>113</v>
+      <c r="A49" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="79" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="78" t="s">
-        <v>217</v>
+        <v>143</v>
+      </c>
+      <c r="B50" s="77" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8362,343 +8517,343 @@
         <v>2</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="24" t="s">
+    <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B62" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="24" t="s">
+    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B63" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="24" t="s">
+    <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="26" t="s">
+      <c r="B65" s="21" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="23" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="27" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="31" t="s">
+    <row r="73" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="31" t="s">
+    <row r="80" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="31" t="s">
+    <row r="81" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="27" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="27" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="36" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B83" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>188</v>
+      <c r="B85" s="36" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B86" s="38" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>189</v>
+      <c r="A87" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>156</v>
+      <c r="A88" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="42" t="s">
-        <v>160</v>
+      <c r="A89" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" s="46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>132</v>
+      <c r="B93" s="47" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -8717,197 +8872,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.83984375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="168.47265625" style="72" customWidth="1"/>
+    <col min="1" max="1" width="45.83984375" style="71" customWidth="1"/>
+    <col min="2" max="2" width="168.47265625" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>193</v>
+      <c r="B3" s="51" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="66" t="s">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="66" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="66" t="s">
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="66" t="s">
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="6" customFormat="1" ht="203.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="203.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>152</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>194</v>
+        <v>90</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="67" t="s">
+      <c r="B19" s="70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>196</v>
-      </c>
-    </row>
     <row r="22" spans="1:2" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>197</v>
+      <c r="A22" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1E59C3-C08C-4534-BC84-698E54F79825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3440D-09E7-495A-8B85-B55CE8D48D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Списки БС" sheetId="2" r:id="rId1"/>
@@ -3337,56 +3337,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные ед. ч. I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные мн. ч. I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
     </r>
     <r>
@@ -4659,6 +4609,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Поиск глаголов с определённым элементом спец. информации / определённым сочетанием идущих друг за другом элементов спец. информации                                                      </t>
+    </r>
+    <r>
       <rPr>
         <i/>
         <sz val="11"/>
@@ -4668,12 +4621,2404 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                                                 Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                                        Глаголы пер НБI8#.txt                                                              ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                              Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Местоимения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                     часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                             часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                           часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                       Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Числительные</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <t>Создать документ Снимок БС.txt .                                                                                                                                                                                                                                                                                                                                   Удалить из него строки из документов:                                                                                                                                                                                                                                                                                                                Многокорневые слова БС.txt ;                                                                                                                                                                                                                                                                                                                                             Повторы в пределах гнезда. 1 раз в БС.txt ;                                                                                                                                                                                                                                                                                                                           Омонимы БС (ЗС групп и одиночки).txt .                                                                                                                                                                                                                                                                                                                        Сохранить получившийся документ и переименовать его в Обычные слова БС.txt .                                                                                                                                                                                                                        Примечание. В 3 указанных документах могут быть одинаковые строки.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные ед. ч.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные мн. ч.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> м! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или индикатор мн. ч. с индикатором "!":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мн!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме ЗС групп с идентификатором</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Поиск существительных с определённым сочетанием идущих друг за другом элементов спец. информации                                                      Напр.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4684,30 +7029,52 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Поиск глаголов с определённым элементом спец. информации / определённым сочетанием идущих друг за другом элементов спец. информации                                                      </t>
-    </r>
-    <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                                                 Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                                        Глаголы пер НБI8#.txt                                                              ...</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_ед_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_мн_ч I1.txt</t>
     </r>
   </si>
   <si>
@@ -4724,114 +7091,30 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                              Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Местоимения</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                     часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                             часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                           часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
     </r>
   </si>
   <si>
@@ -4848,133 +7131,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                       Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Числительные</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <t>Создать документ Снимок БС.txt .                                                                                                                                                                                                                                                                                                                                   Удалить из него строки из документов:                                                                                                                                                                                                                                                                                                                Многокорневые слова БС.txt ;                                                                                                                                                                                                                                                                                                                                             Повторы в пределах гнезда. 1 раз в БС.txt ;                                                                                                                                                                                                                                                                                                                           Омонимы БС (ЗС групп и одиночки).txt .                                                                                                                                                                                                                                                                                                                        Сохранить получившийся документ и переименовать его в Обычные слова БС.txt .                                                                                                                                                                                                                        Примечание. В 3 указанных документах могут быть одинаковые строки.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">.С </t>
     </r>
     <r>
@@ -4986,2197 +7142,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные ед. ч.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные мн. ч.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> м! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">мн </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>или индикатор мн. ч. с индикатором "!":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> мн!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и отсутствует дефис</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме ЗС групп с идентификатором</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
-    </r>
-  </si>
-  <si>
-    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (но не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
     </r>
   </si>
 </sst>
@@ -7184,7 +7150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7517,6 +7483,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7562,7 +7545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7758,12 +7741,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7783,9 +7760,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7802,24 +7776,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8103,16 +8083,16 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="43.41796875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="167.578125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="43.40625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="167.58984375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -8120,7 +8100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -8128,7 +8108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="26" t="s">
         <v>9</v>
       </c>
@@ -8136,7 +8116,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
@@ -8144,31 +8124,31 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
@@ -8176,55 +8156,55 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="85" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="82" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="72" t="s">
+      <c r="B10" s="43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A11" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="93" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
@@ -8232,111 +8212,111 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="186.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="90" t="s">
-        <v>194</v>
+    <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A19" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="186.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="94" t="s">
+        <v>223</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="87" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="87" t="s">
+      <c r="B23" s="76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A24" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="88" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="78" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="87" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="75" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="92" t="s">
+      <c r="B27" s="73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="87" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" s="26" t="s">
         <v>17</v>
       </c>
@@ -8344,7 +8324,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" s="26" t="s">
         <v>18</v>
       </c>
@@ -8352,7 +8332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" s="26" t="s">
         <v>19</v>
       </c>
@@ -8360,111 +8340,111 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="91" t="s">
-        <v>223</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="86" t="s">
+        <v>218</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="93" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A37" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="89" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A41" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="96" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="95" t="s">
+      <c r="B41" s="91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="96" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="95" t="s">
+      <c r="B42" s="91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="96" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A44" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" s="18" t="s">
         <v>42</v>
       </c>
@@ -8472,47 +8452,47 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="77" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" ht="118" x14ac:dyDescent="0.75">
       <c r="A50" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" s="14" t="s">
         <v>2</v>
       </c>
@@ -8520,79 +8500,79 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" s="23" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" s="23" t="s">
         <v>51</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A61" s="23" t="s">
         <v>56</v>
       </c>
@@ -8600,7 +8580,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A62" s="23" t="s">
         <v>57</v>
       </c>
@@ -8608,7 +8588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A63" s="23" t="s">
         <v>58</v>
       </c>
@@ -8616,15 +8596,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
       <c r="A64" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B64" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" s="20" t="s">
         <v>59</v>
       </c>
@@ -8632,7 +8612,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A66" s="11" t="s">
         <v>144</v>
       </c>
@@ -8640,7 +8620,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" s="26" t="s">
         <v>3</v>
       </c>
@@ -8648,7 +8628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" s="26" t="s">
         <v>60</v>
       </c>
@@ -8656,7 +8636,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" s="26" t="s">
         <v>62</v>
       </c>
@@ -8664,7 +8644,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A70" s="27" t="s">
         <v>61</v>
       </c>
@@ -8672,15 +8652,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A71" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" s="31" t="s">
         <v>63</v>
       </c>
@@ -8688,31 +8668,31 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A73" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A74" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A75" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A76" s="26" t="s">
         <v>4</v>
       </c>
@@ -8720,15 +8700,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A77" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A78" s="31" t="s">
         <v>67</v>
       </c>
@@ -8736,31 +8716,31 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A79" s="31" t="s">
         <v>68</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A80" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A81" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" s="26" t="s">
         <v>71</v>
       </c>
@@ -8768,7 +8748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" s="35" t="s">
         <v>72</v>
       </c>
@@ -8776,7 +8756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" s="35" t="s">
         <v>78</v>
       </c>
@@ -8784,15 +8764,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A86" s="12" t="s">
         <v>134</v>
       </c>
@@ -8800,15 +8780,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A87" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A88" s="38" t="s">
         <v>76</v>
       </c>
@@ -8816,7 +8796,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A89" s="40" t="s">
         <v>133</v>
       </c>
@@ -8824,7 +8804,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A90" s="13" t="s">
         <v>75</v>
       </c>
@@ -8832,7 +8812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A91" s="35" t="s">
         <v>77</v>
       </c>
@@ -8840,15 +8820,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A92" s="44" t="s">
         <v>129</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A93" s="46" t="s">
         <v>127</v>
       </c>
@@ -8870,13 +8850,13 @@
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.83984375" style="71" customWidth="1"/>
-    <col min="2" max="2" width="168.47265625" style="71" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="168.453125" style="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="63" t="s">
         <v>15</v>
       </c>
@@ -8884,23 +8864,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="73.849999999999994" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="48" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="50" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="7" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -8908,7 +8888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="65" t="s">
         <v>82</v>
       </c>
@@ -8916,7 +8896,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="65" t="s">
         <v>83</v>
       </c>
@@ -8924,7 +8904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="65" t="s">
         <v>84</v>
       </c>
@@ -8932,7 +8912,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="65" t="s">
         <v>85</v>
       </c>
@@ -8940,7 +8920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="65" t="s">
         <v>86</v>
       </c>
@@ -8948,15 +8928,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="203.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="6" customFormat="1" ht="203.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="53" t="s">
         <v>151</v>
       </c>
@@ -8964,7 +8944,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="65" t="s">
         <v>88</v>
       </c>
@@ -8972,15 +8952,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
@@ -8988,7 +8968,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="56" t="s">
         <v>94</v>
       </c>
@@ -8996,7 +8976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="66" t="s">
         <v>95</v>
       </c>
@@ -9004,7 +8984,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="65" t="s">
         <v>132</v>
       </c>
@@ -9012,15 +8992,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="68" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A19" s="66" t="s">
         <v>92</v>
       </c>
@@ -9028,39 +9008,39 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A20" s="66" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="59" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
       <c r="A22" s="61" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="71"/>
       <c r="B23" s="71"/>
     </row>
-    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="71"/>
       <c r="B24" s="71"/>
     </row>
-    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="71"/>
       <c r="B25" s="71"/>
     </row>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3440D-09E7-495A-8B85-B55CE8D48D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181E13B-0AE7-46B0-9C99-D9B5828CB932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,46 +974,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Это сочетание элементов спец. информации вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
     </r>
     <r>
@@ -4888,13 +4848,757 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> м! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или индикатор мн. ч. с индикатором "!":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мн!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4905,7 +5609,1487 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме ЗС групп с идентификатором</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием 2 ЭСИ или определённым сочетанием 3 ЭСИ.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные жII1.txt                                                       Существительные с!I5.txt                                         Существительные мнII6.txt                              Существительные мн!I16о*.txt         Существительные мI1 мнI1.txt                       Существительные одуш сI5.txt                               Существительные неод мн!IV6*.txt       Существительные одуш жIII1 мнI6.txt                                 ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные                                                                                                                                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание. ЭСИ могут быть 3 видов:                                                                                                                                                                                                                                                                                                        1. указатель одушевлённости;                                                                                                                                                                                                                                                                                                                    2. "элемент единственного числа", состоящий из указателя рода (с индикатором "!" или без него) и шаблона ед. ч.;                                                                                                                                                           3. "элемент множественного числа", состоящий из индикатора "мн" (с индикатором "!" или без него) и шаблона мн. ч.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_ед_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_мн_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4917,13 +7101,12 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные ед. ч.</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_ед_ч</t>
     </r>
   </si>
   <si>
@@ -4934,7 +7117,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4945,7 +7127,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4957,2192 +7138,12 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные мн. ч.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> м! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">мн </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>или индикатор мн. ч. с индикатором "!":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> мн!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и отсутствует дефис</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме ЗС групп с идентификатором</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (но не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым сочетанием идущих друг за другом элементов спец. информации                                                      Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные жII1.txt                            Существительные мнII6.txt                            Существительные с!I5.txt                                Существительные мн!I16о*.txt         Существительные мI1 мнI1.txt                       Существительные одуш сI5.txt                     Существительные неод ж!II6.txt             Существительные одуш мн!IV6*.txt       Существительные неод жIII1 мнI6.txt                                 ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_ед_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_мн_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.С</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_мн_ч</t>
     </r>
   </si>
 </sst>
@@ -7150,12 +7151,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7500,6 +7509,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7545,261 +7562,255 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8083,7 +8094,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123"/>
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8101,395 +8112,395 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A11" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A11" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="91" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="77" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>202</v>
+      <c r="B18" s="15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="186.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="94" t="s">
+      <c r="B19" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="192.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="17" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="76" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A24" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="95" t="s">
-        <v>226</v>
+      <c r="B26" s="86" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A37" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A41" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A44" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A40" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A41" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="91" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A43" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A44" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="14" t="s">
+    <row r="48" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="75" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A46" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A47" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A48" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="77" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="118" x14ac:dyDescent="0.75">
       <c r="A50" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="75" t="s">
-        <v>209</v>
+        <v>142</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
@@ -8497,343 +8508,343 @@
         <v>2</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A61" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A61" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="17" t="s">
+    <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A62" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A62" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="17" t="s">
+    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A63" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A63" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="17" t="s">
+    <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
+      <c r="A64" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
-      <c r="A64" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" s="25" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A66" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="22" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="26" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A70" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A71" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A71" s="29" t="s">
+    <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A73" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A74" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A75" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A76" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A77" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A73" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A74" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A75" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="33" t="s">
+      <c r="B77" s="29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="26" t="s">
+    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A78" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A77" s="29" t="s">
+    <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A79" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A80" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A81" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A85" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A78" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A79" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A80" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A81" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A85" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A86" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="37" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>182</v>
+      <c r="B87" s="34" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="38" t="s">
+      <c r="A88" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="39" t="s">
-        <v>155</v>
+      <c r="B88" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A89" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B89" s="41" t="s">
-        <v>159</v>
+      <c r="A89" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A90" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A91" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A92" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A93" s="45" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A91" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
-      <c r="A92" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A93" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>131</v>
+      <c r="B93" s="46" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8852,197 +8863,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" style="71" customWidth="1"/>
-    <col min="2" max="2" width="168.453125" style="71" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="168.453125" style="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" ht="73.849999999999994" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:2" s="8" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="51" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="52" t="s">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="52" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="52" t="s">
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="52" t="s">
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>183</v>
+      <c r="B10" s="51" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" ht="203.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>151</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>187</v>
+      <c r="B13" s="54" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>156</v>
+      <c r="B14" s="54" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>150</v>
+      <c r="B15" s="56" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>149</v>
+      <c r="B16" s="66" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>154</v>
+      <c r="A17" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A19" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="59" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A19" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.85" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="60" t="s">
+    <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A22" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="61" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A22" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0181E13B-0AE7-46B0-9C99-D9B5828CB932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D0720-1BB9-46A2-8627-FDEAAC41F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6955,33 +6955,226 @@
       <rPr>
         <i/>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_ед_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_мн_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные_ед_ч                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные_мн_ч                                                                                                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Поиск существительных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием 2 ЭСИ или определённым сочетанием 3 ЭСИ.                                                       Напр.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные жII1.txt                                                       Существительные с!I5.txt                                         Существительные мнII6.txt                              Существительные мн!I16о*.txt         Существительные мI1 мнI1.txt                       Существительные одуш сI5.txt                               Существительные неод мн!IV6*.txt       Существительные одуш жIII1 мнI6.txt                                 ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные                                                                                                                                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Существительные жII1.txt                                                       Существительные с!I5.txt                                         Существительные мнII6.txt                              Существительные мн!I16о*.txt         Существительные мI1 мнI1.txt                       Существительные одуш сI5.txt                               Существительные неод мн!IV6*.txt       Существительные одуш жIII1 мнI6.txt                                 ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -6989,161 +7182,28 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Существительные                                                                                                                                                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
       <t>Примечание. ЭСИ могут быть 3 видов:                                                                                                                                                                                                                                                                                                        1. указатель одушевлённости;                                                                                                                                                                                                                                                                                                                    2. "элемент единственного числа", состоящий из указателя рода (с индикатором "!" или без него) и шаблона ед. ч.;                                                                                                                                                           3. "элемент множественного числа", состоящий из индикатора "мн" (с индикатором "!" или без него) и шаблона мн. ч.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_ед_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_мн_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_ед_ч</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_мн_ч</t>
     </r>
   </si>
 </sst>
@@ -7151,12 +7211,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7562,239 +7630,239 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7802,14 +7870,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8094,7 +8156,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8112,202 +8174,202 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="80" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="89" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="90" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="76" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="92" t="s">
+    <row r="18" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="15" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A19" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="192.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="41" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A19" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="41" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="192.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>223</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="85" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="73" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="73" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="85" t="s">
         <v>220</v>
       </c>
     </row>
@@ -8315,148 +8377,148 @@
       <c r="A27" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="70" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="81" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="86" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="41" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="88" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="89" t="s">
+      <c r="B42" s="88" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="88" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B45" s="14" t="s">
@@ -8464,34 +8526,34 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="71" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="71" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="74" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8499,7 +8561,7 @@
       <c r="A50" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="72" t="s">
         <v>206</v>
       </c>
     </row>
@@ -8512,114 +8574,114 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>117</v>
       </c>
     </row>
@@ -8627,159 +8689,159 @@
       <c r="A66" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="28" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="28" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="32" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="34" t="s">
+      <c r="A83" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="32" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B84" s="32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>180</v>
       </c>
     </row>
@@ -8787,31 +8849,31 @@
       <c r="A86" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="36" t="s">
+      <c r="B86" s="35" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="38" t="s">
+      <c r="B88" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="39" t="s">
         <v>158</v>
       </c>
     </row>
@@ -8819,31 +8881,31 @@
       <c r="A90" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="42" t="s">
+      <c r="B91" s="41" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="43" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A93" s="45" t="s">
+      <c r="A93" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="45" t="s">
         <v>130</v>
       </c>
     </row>
@@ -8863,31 +8925,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="168.453125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="168.453125" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8895,47 +8957,47 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8943,23 +9005,23 @@
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" ht="203.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8967,7 +9029,7 @@
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>186</v>
       </c>
     </row>
@@ -8975,85 +9037,85 @@
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="56" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="68" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="68" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="5" customFormat="1" ht="160.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Списки.xlsx
+++ b/Списки.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ТВ-ВО\а также\ТЕКСТ ПРОГРАММА\+ генератор списков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D0720-1BB9-46A2-8627-FDEAAC41F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD20B5D-4D66-4D8E-93B9-E49FAD73F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
   <si>
     <t>Существительные.txt</t>
   </si>
@@ -1276,46 +1276,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый элемент / указано искомое сочетание идущих друг за другом элементов.                                                                                                                                          Этот элемент спец. информации / сочетание элементов спец. информации вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Прилагательные</t>
     </r>
   </si>
   <si>
@@ -4544,6 +4504,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Поиск глаголов с определённым элементом спец. информации / определённым сочетанием идущих друг за другом элементов спец. информации                                                      </t>
+    </r>
+    <r>
       <rPr>
         <i/>
         <sz val="11"/>
@@ -4553,23 +4516,46 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Поиск прилагательных с определённым элементом спец. информации / определённым сочетанием идущих друг за другом элементов спец. информации                                                      Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Прилагательные II1.txt                            Прилагательные К1е.txt                            Прилагательные СII4ж.txt                              Прилагательные ПII4ч.txt                             Прилагательные I2 К4.txt                                 Прилагательные II3 СII1.txt                        Прилагательные К2о СII5ч.txt                    Прилагательные II1 К1 СI1.txt                 Прилагательные К1 СI1 ПI1.txt                                          Прилагательные II1 К1 СI1 ПI1.txt                                       ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Поиск глаголов с определённым элементом спец. информации / определённым сочетанием идущих друг за другом элементов спец. информации                                                      </t>
+      <t>Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                                                 Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                                        Глаголы пер НБI8#.txt                                                              ...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                              Название этого шаблона вставляется в название документа после </t>
     </r>
     <r>
       <rPr>
@@ -4581,18 +4567,91 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Глаголы сов пер.txt                                      Глаголы нес неп б.txt                                                       Глаголы 2в неп НБI9у.txt                                          Глаголы НБI8щ П1.txt                                                            Глаголы НБI3&amp;4 П1 Пв1|2 С(2).txt                                                            Глаголы НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                                                 Глаголы нес пер НБII2 П1 Пв3 ПНД1 ПНС2 ППД1в ППС2 ДН1 ДП1.txt                                                        Глаголы ДН3 ДП1.txt                                                        Глаголы пер НБI8#.txt                                                              ...</t>
+      <t>Местоимения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                     часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                             часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.М </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                           часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
     </r>
   </si>
   <si>
@@ -4609,18 +4668,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                              Название этого шаблона вставляется в название документа после </t>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                       Название этого шаблона вставляется в название документа после </t>
     </r>
     <r>
       <rPr>
@@ -4632,7 +4691,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Местоимения</t>
+      <t>Числительные</t>
     </r>
   </si>
   <si>
@@ -4649,18 +4708,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                     часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                             часть слова после первого дефиса во всех строках группы одинаковая.</t>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                часть слова после первого дефиса во всех строках группы одинаковая.</t>
     </r>
   </si>
   <si>
@@ -4677,18 +4736,18 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
     </r>
   </si>
   <si>
@@ -4705,18 +4764,766 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.М </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                            в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                           часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+      <t xml:space="preserve">.Ч </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <t>Создать документ Снимок БС.txt .                                                                                                                                                                                                                                                                                                                                   Удалить из него строки из документов:                                                                                                                                                                                                                                                                                                                Многокорневые слова БС.txt ;                                                                                                                                                                                                                                                                                                                                             Повторы в пределах гнезда. 1 раз в БС.txt ;                                                                                                                                                                                                                                                                                                                           Омонимы БС (ЗС групп и одиночки).txt .                                                                                                                                                                                                                                                                                                                        Сохранить получившийся документ и переименовать его в Обычные слова БС.txt .                                                                                                                                                                                                                        Примечание. В 3 указанных документах могут быть одинаковые строки.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> м! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">мн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>или индикатор мн. ч. с индикатором "!":</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мн!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-СмнИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СмнИ-СеИ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и индикатор мн. ч. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.П </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
     </r>
   </si>
   <si>
@@ -4727,180 +5534,1411 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон.                                                                                                                                                       Название этого шаблона вставляется в название документа после </t>
-    </r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">м </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отсутствует дефис</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(кроме ЗС групп с идентификатором</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-м!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ж! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-ж!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и не содержит символ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.СеИ-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-с!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…).</t>
+    </r>
+  </si>
+  <si>
+    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (но не </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мн</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).                                        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.С</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется более 1 дефиса.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.С </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Числительные</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Ч </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                    часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <t>Создать документ Снимок БС.txt .                                                                                                                                                                                                                                                                                                                                   Удалить из него строки из документов:                                                                                                                                                                                                                                                                                                                Многокорневые слова БС.txt ;                                                                                                                                                                                                                                                                                                                                             Повторы в пределах гнезда. 1 раз в БС.txt ;                                                                                                                                                                                                                                                                                                                           Омонимы БС (ЗС групп и одиночки).txt .                                                                                                                                                                                                                                                                                                                        Сохранить получившийся документ и переименовать его в Обычные слова БС.txt .                                                                                                                                                                                                                        Примечание. В 3 указанных документах могут быть одинаковые строки.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_ед_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные_мн_ч I1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -4911,231 +6949,43 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или указатель рода с индикатором "!": </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> м! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные_ед_ч                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                 При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -5146,116 +6996,43 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">мн </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>или индикатор мн. ч. с индикатором "!":</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> мн!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-СмнИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СмнИ-СеИ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные_мн_ч                                                                                                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -5266,144 +7043,188 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации имеется указатель рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и индикатор мн. ч. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы: Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                         Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Сущ-ные с дефисом. Изм. первая часть.txt , Сущ-ные с дефисом. Изм. обе части.txt , Сущ-ные с дефисом. Разное число.txt .                                                                                                                                                                                                                                                                                                                                        Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Существительные. Сочетания шаблонов.xlsx . Вставить в 8 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 7 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Существительные                                                                                                                                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание. ЭСИ могут быть 3 видов:                                                                                                                                                                                                                                                                                                        1. указатель одушевлённости;                                                                                                                                                                                                                                                                                                                    2. "элемент единственного числа", состоящий из указателя рода (с индикатором "!" или без него) и шаблона ед. ч.;                                                                                                                                                           3. "элемент множественного числа", состоящий из индикатора "мн" (с индикатором "!" или без него) и шаблона мн. ч.</t>
+    </r>
+  </si>
+  <si>
+    <t>Существительные с!I5.txt</t>
+  </si>
+  <si>
+    <t>Существительные мнII6.txt</t>
+  </si>
+  <si>
+    <t>Существительные мн!I16о*.txt</t>
+  </si>
+  <si>
+    <t>Существительные мI1 мнI1.txt</t>
+  </si>
+  <si>
+    <t>Существительные одуш сI5.txt</t>
+  </si>
+  <si>
+    <t>Существительные неод мн!IV6*.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существительные одуш жIII1 мнI6.txt     </t>
+  </si>
+  <si>
+    <t>Существительные жII1.txt</t>
+  </si>
+  <si>
+    <t>Примеры:</t>
+  </si>
+  <si>
+    <t>Поиск существительных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием нескольких ЭСИ.</t>
+  </si>
+  <si>
+    <t>Прилагательные К1е.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные СII4ж.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные ПII4ч.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные I2 К4.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II3 СII1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные К2о СII5ч.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II1 К1 СI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные К1 СI1 ПI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II1 К1 СI1 ПI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II1 ПI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные К1 ПI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II1 К1 ПI1.txt</t>
+  </si>
+  <si>
+    <t>Прилагательные II1 СI1 ПI1.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поиск прилагательных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием нескольких ЭСИ. </t>
+  </si>
+  <si>
+    <t>Прилагательные II1.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск существительных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием нескольких ЭСИ.                                                        Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Существительные жII1.txt                                                       * Прочие примеры - см. ниже, под таблицей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поиск прилагательных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием нескольких ЭСИ.                                                     Напр.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Прилагательные II1.txt                                                 *  Прочие примеры - см. ниже, под таблицей.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -5414,1681 +7235,48 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                        часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                     часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать документы Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                          Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и ЗС отсутствует в документах Прил-ные с дефисом. Изм. первая часть.txt и Прил-ные с дефисом. Изм. обе части.txt .                                                                                                                                                                                              Выбрать из найденных строк строки с уникальным сочетанием элементов спец. информации (подробнее об элементах спец. информации - см. док-т Структура строки.xlsx , вкладка Структура спец. информации).                                                                                                                                                                                                                                                                                                                                                                           Примечание. При наличии нескольких строк с одинаковым сочетанием элементов спец. информации выбирать первую (верхнюю) строку, т.е. строку, слово в которой идёт первым по алфавиту.                                                                                                                                                                                                                                                                                                                                                                  Создать документ Прилагательные. Сочетания шаблонов.xlsx . Вставить в 7 столбцов этого документа выбранные строки (слово - в первый столбец, элементы спец. информации - в другие 6 столбцов), располагая строки в соответствии с алфавитным порядком элементов спец. информации.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                             в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                         часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.П </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                          часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                                 часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                  часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после первого дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                  в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                 часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные;                                                                                                                                         часть слова до последнего дефиса во всех строках группы одинаковая.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, отвечающих следующим требованиям:                                                                                                                                                                                                                                                                              идентификатор ЗС группы содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;                                                                                                                                                                                                                                                                                                                                   в ЗС имеется хотя бы 1 дефис;                                                                                                                                                                                                                                                                                                                                                   часть слова до первого дефиса в строке ЗС и часть слова до первого дефиса в следующей после строки ЗС строке разные;                                                                                                                                                               часть слова после последнего дефиса в строке ЗС и часть слова после последнего дефиса в следующей после строки ЗС строке разные.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                           а. имеется указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">м </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и отсутствует дефис</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(кроме ЗС групп с идентификатором</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> .СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                     б. имеется указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                            в. имеются указатель муж. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                    г. имеются указатель муж. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель муж. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-м!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                                  а. имеется указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                              б. имеется указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                     в. имеются указатель жен. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель жен. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                                 г. имеются указатель жен. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ж! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и указатель жен. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-ж!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>и не содержит символ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации в составе шаблона ед. ч.:                                                                                                                                                                             а. имеется указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">с </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">или                                                                                                                                                                                                                                                                                                    б. имеется указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и отсутствует дефис (кроме ЗС групп с идентификатором </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.СеИ-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) или                                                                                                                                                                                                                                                                                                                    в. имеются указатель ср. рода </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">…) или                                                                                                                                                                                                               г. имеются указатель ср. рода с индикатором "!" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> и указатель ср. рода с индикатором "!" с предшествующим дефисом </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-с!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>…).</t>
-    </r>
-  </si>
-  <si>
-    <t>Прилагательные. Полная форма ед. и мн. ч.txt</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации указан шаблон полной формы, название которого содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>м</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (но не </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>мн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон краткой формы (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон сравнительной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , и в спец. информации имеется шаблон превосходной степени (кроме прилагательных с дефисом, у которых изменяются обе части слова, т.е. кроме ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , а также </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-П</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).                                        </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.С</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется более 1 дефиса.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, и в ЗС имеется хотя бы 1 дефис.</t>
-    </r>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
+    </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном ед. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_ед_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Прилагательные                                                                                                                                                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .      </t>
+    </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым шаблоном мн. ч.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные_мн_ч I1.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон ед. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Существительные_ед_ч                                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый шаблон мн. ч.                                                                                                                                             Название этого шаблона вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Существительные_мн_ч                                                                                                                                                                                                            </t>
+      <t xml:space="preserve">                                                                                                                                                                                                  </t>
     </r>
     <r>
       <rPr>
@@ -7099,111 +7287,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Поиск существительных с определённым элементом спец. информации (ЭСИ) или определённым сочетанием 2 ЭСИ или определённым сочетанием 3 ЭСИ.                                                       Напр.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Существительные жII1.txt                                                       Существительные с!I5.txt                                         Существительные мнII6.txt                              Существительные мн!I16о*.txt         Существительные мI1 мнI1.txt                       Существительные одуш сI5.txt                               Существительные неод мн!IV6*.txt       Существительные одуш жIII1 мнI6.txt                                 ...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Найти в БС строки с ЗС групп, идентификатор которых содержит </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.С </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, и в спец. информации указан искомый ЭСИ или искомое сочетание ЭСИ.                                                                                                                                          Этот ЭСИ или это сочетание ЭСИ вставляется в название документа после </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Существительные                                                                                                                                                                                                       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">При этом происходит замена следующих символов: * заменяется на ^ , | на ] , / на [ .      </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                                                              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Примечание. ЭСИ могут быть 3 видов:                                                                                                                                                                                                                                                                                                        1. указатель одушевлённости;                                                                                                                                                                                                                                                                                                                    2. "элемент единственного числа", состоящий из указателя рода (с индикатором "!" или без него) и шаблона ед. ч.;                                                                                                                                                           3. "элемент множественного числа", состоящий из индикатора "мн" (с индикатором "!" или без него) и шаблона мн. ч.</t>
+      <t>Примечание. ЭСИ могут быть 4 видов:                                                                                                                                                                                                                                                                                                        1. шаблон полной формы;                                                                                                                                                                                                                                                                                                                            2. шаблон кратой формы;                                                                                                                                                                                                                                                                                                                                               3. шаблон сравнительной степени;                                                                                                                                                                                                                                                                                                                            4. шаблон превосходной степени.</t>
     </r>
   </si>
 </sst>
@@ -7630,7 +7714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7667,9 +7751,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7871,6 +7952,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8153,10 +8242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8174,347 +8263,347 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A11" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A8" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.7" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A10" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A11" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A15" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>161</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="89" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="B18" s="41" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A19" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="106.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A19" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="192.25" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>221</v>
+      <c r="B21" s="84" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="72" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A23" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A24" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="72" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A24" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>211</v>
-      </c>
-    </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="74" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="85" t="s">
-        <v>220</v>
+      <c r="B26" s="84" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>204</v>
+        <v>140</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="80" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A41" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="86" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="87" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A35" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A36" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A37" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A40" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A41" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="88" t="s">
+    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="87" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A42" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="88" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A43" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A44" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>109</v>
+    <row r="44" spans="1:2" ht="118" x14ac:dyDescent="0.75">
+      <c r="A44" s="94" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.75">
@@ -8522,47 +8611,47 @@
         <v>42</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>208</v>
+      <c r="B46" s="70" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="71" t="s">
-        <v>207</v>
+      <c r="B47" s="70" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A48" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="71" t="s">
-        <v>205</v>
+      <c r="B48" s="70" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="74" t="s">
-        <v>111</v>
+      <c r="B49" s="73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="118" x14ac:dyDescent="0.75">
       <c r="A50" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="72" t="s">
-        <v>206</v>
+        <v>141</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.75">
@@ -8570,343 +8659,473 @@
         <v>2</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A54" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A60" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A61" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A52" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A53" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A54" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A55" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A56" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A57" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A58" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A59" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A60" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A61" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="15" t="s">
+    <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A62" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A62" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="15" t="s">
+    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A63" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A63" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="15" t="s">
+    <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
+      <c r="A64" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="236" x14ac:dyDescent="0.75">
-      <c r="A64" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="23" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A65" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A66" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="20" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A67" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="24" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A70" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A71" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A72" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A68" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A69" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="30.65" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A70" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A71" s="27" t="s">
+    <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A73" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A74" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A75" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A76" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A77" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A72" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A73" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A74" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="28" t="s">
+      <c r="B77" s="27" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A75" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="31" t="s">
+    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A78" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A79" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A76" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A77" s="27" t="s">
+    <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A80" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A81" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A85" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A78" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A79" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A80" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" s="4" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A81" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A82" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A83" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A84" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A85" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A86" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="35" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="87" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="33" t="s">
-        <v>181</v>
+      <c r="B87" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B88" s="37" t="s">
-        <v>154</v>
+      <c r="B88" s="36" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A89" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="39" t="s">
-        <v>158</v>
+      <c r="A89" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A90" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A91" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A92" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A93" s="43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" s="8" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A91" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" s="5" customFormat="1" ht="103.25" x14ac:dyDescent="0.75">
-      <c r="A92" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A93" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" s="45" t="s">
-        <v>130</v>
+      <c r="B93" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A95" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A96" s="91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A97" s="91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A98" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A99" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A100" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A101" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A102" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A103" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A104" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A105" s="92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A106" s="91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A107" s="91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A108" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A109" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A110" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A111" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A112" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A113" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A114" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A115" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A116" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A117" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A118" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A119" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A120" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -8925,197 +9144,197 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="168.453125" style="69" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="168.453125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="89.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="7" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A5" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="50" t="s">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="50" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="50" t="s">
+    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="50" t="s">
+    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A9" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="7" customFormat="1" ht="116.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>182</v>
+      <c r="B10" s="49" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="6" customFormat="1" ht="203.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>150</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>186</v>
+      <c r="B13" s="52" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="7" customFormat="1" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>155</v>
+      <c r="B14" s="52" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="6" customFormat="1" ht="44.15" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>149</v>
+      <c r="B15" s="54" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>148</v>
+      <c r="B16" s="64" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>153</v>
+      <c r="A17" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="7" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A20" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="57" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" ht="73.75" x14ac:dyDescent="0.75">
-      <c r="A19" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" ht="88.5" x14ac:dyDescent="0.75">
-      <c r="A20" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="160.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="58" t="s">
+    <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A22" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="221.25" x14ac:dyDescent="0.75">
-      <c r="A22" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
